--- a/angabe1/data/2017/Messungen_2017_Geschwindigkeit_Treppe_Ab.xlsx
+++ b/angabe1/data/2017/Messungen_2017_Geschwindigkeit_Treppe_Ab.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Runde</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>Zeit</t>
-  </si>
-  <si>
-    <t>Geschwindigkeit</t>
   </si>
 </sst>
 </file>
@@ -413,10 +410,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E67"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -425,10 +422,9 @@
     <col min="2" max="2" width="13.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="15" style="2" customWidth="1"/>
     <col min="4" max="4" width="30.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -441,11 +437,8 @@
       <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -456,12 +449,8 @@
         <v>6.84</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2">
-        <f>9.39/C2</f>
-        <v>1.3728070175438598</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -472,12 +461,8 @@
         <v>7.37</v>
       </c>
       <c r="D3" s="4"/>
-      <c r="E3">
-        <f t="shared" ref="E3:E66" si="0">9.39/C3</f>
-        <v>1.2740841248303936</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -488,12 +473,8 @@
         <v>6.22</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>1.509646302250804</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -504,12 +485,8 @@
         <v>9.66</v>
       </c>
       <c r="D5" s="4"/>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>0.97204968944099379</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -520,12 +497,8 @@
         <v>6.78</v>
       </c>
       <c r="D6" s="4"/>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>1.3849557522123894</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -536,12 +509,8 @@
         <v>6.82</v>
       </c>
       <c r="D7" s="4"/>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>1.3768328445747802</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -552,12 +521,8 @@
         <v>8.81</v>
       </c>
       <c r="D8" s="4"/>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>1.0658342792281499</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -568,12 +533,8 @@
         <v>9.81</v>
       </c>
       <c r="D9" s="4"/>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>0.95718654434250761</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -584,12 +545,8 @@
         <v>9.23</v>
       </c>
       <c r="D10" s="4"/>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>1.0173347778981583</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -600,12 +557,8 @@
         <v>11.25</v>
       </c>
       <c r="D11" s="4"/>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>0.83466666666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -616,12 +569,8 @@
         <v>8.57</v>
       </c>
       <c r="D12" s="4"/>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>1.0956826137689615</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -632,12 +581,8 @@
         <v>9.9700000000000006</v>
       </c>
       <c r="D13" s="4"/>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0.94182547642928782</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -649,148 +594,112 @@
         <v>8.2799999999999994</v>
       </c>
       <c r="D14" s="4"/>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>1.1340579710144929</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>1</v>
       </c>
       <c r="B15" s="4">
-        <f t="shared" ref="B15:B22" si="1">B14+1</f>
+        <f t="shared" ref="B15:B22" si="0">B14+1</f>
         <v>14</v>
       </c>
       <c r="C15" s="5">
         <v>6.78</v>
       </c>
       <c r="D15" s="4"/>
-      <c r="E15">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
         <f t="shared" si="0"/>
-        <v>1.3849557522123894</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4">
-        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C16" s="5">
         <v>7.28</v>
       </c>
       <c r="D16" s="4"/>
-      <c r="E16">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4">
         <f t="shared" si="0"/>
-        <v>1.2898351648351649</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4">
-        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C17" s="5">
         <v>8.4700000000000006</v>
       </c>
       <c r="D17" s="4"/>
-      <c r="E17">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="4">
         <f t="shared" si="0"/>
-        <v>1.1086186540731995</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4">
-        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C18" s="5">
         <v>7.87</v>
       </c>
       <c r="D18" s="4"/>
-      <c r="E18">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="4">
         <f t="shared" si="0"/>
-        <v>1.1931385006353241</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4">
-        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C19" s="5">
         <v>8.6</v>
       </c>
       <c r="D19" s="4"/>
-      <c r="E19">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="4">
         <f t="shared" si="0"/>
-        <v>1.0918604651162791</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4">
-        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C20" s="5">
         <v>8</v>
       </c>
       <c r="D20" s="4"/>
-      <c r="E20">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="4">
         <f t="shared" si="0"/>
-        <v>1.1737500000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4">
-        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C21" s="5">
         <v>10.14</v>
       </c>
       <c r="D21" s="4"/>
-      <c r="E21">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="4">
         <f t="shared" si="0"/>
-        <v>0.92603550295857984</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
-        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C22" s="5">
         <v>8.4700000000000006</v>
       </c>
       <c r="D22" s="4"/>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>1.1086186540731995</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>1</v>
       </c>
@@ -802,12 +711,8 @@
         <v>10</v>
       </c>
       <c r="D23" s="4"/>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>0.93900000000000006</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>2</v>
       </c>
@@ -818,12 +723,8 @@
         <v>6.87</v>
       </c>
       <c r="D24" s="4"/>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>1.3668122270742358</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>2</v>
       </c>
@@ -834,12 +735,8 @@
         <v>7.37</v>
       </c>
       <c r="D25" s="4"/>
-      <c r="E25">
-        <f t="shared" si="0"/>
-        <v>1.2740841248303936</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>2</v>
       </c>
@@ -850,12 +747,8 @@
         <v>7.03</v>
       </c>
       <c r="D26" s="4"/>
-      <c r="E26">
-        <f t="shared" si="0"/>
-        <v>1.3357041251778095</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>2</v>
       </c>
@@ -866,12 +759,8 @@
         <v>8.65</v>
       </c>
       <c r="D27" s="4"/>
-      <c r="E27">
-        <f t="shared" si="0"/>
-        <v>1.0855491329479769</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>2</v>
       </c>
@@ -882,12 +771,8 @@
         <v>7.22</v>
       </c>
       <c r="D28" s="4"/>
-      <c r="E28">
-        <f t="shared" si="0"/>
-        <v>1.3005540166204987</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>2</v>
       </c>
@@ -898,12 +783,8 @@
         <v>6.9</v>
       </c>
       <c r="D29" s="4"/>
-      <c r="E29">
-        <f t="shared" si="0"/>
-        <v>1.3608695652173912</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>2</v>
       </c>
@@ -914,12 +795,8 @@
         <v>7.63</v>
       </c>
       <c r="D30" s="4"/>
-      <c r="E30">
-        <f t="shared" si="0"/>
-        <v>1.2306684141546527</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>2</v>
       </c>
@@ -930,12 +807,8 @@
         <v>10.42</v>
       </c>
       <c r="D31" s="4"/>
-      <c r="E31">
-        <f t="shared" si="0"/>
-        <v>0.9011516314779271</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>2</v>
       </c>
@@ -946,12 +819,8 @@
         <v>9.1</v>
       </c>
       <c r="D32" s="4"/>
-      <c r="E32">
-        <f t="shared" si="0"/>
-        <v>1.031868131868132</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>2</v>
       </c>
@@ -962,12 +831,8 @@
         <v>11.65</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33">
-        <f t="shared" si="0"/>
-        <v>0.80600858369098716</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>2</v>
       </c>
@@ -978,12 +843,8 @@
         <v>8.81</v>
       </c>
       <c r="D34" s="4"/>
-      <c r="E34">
-        <f t="shared" si="0"/>
-        <v>1.0658342792281499</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>2</v>
       </c>
@@ -994,12 +855,8 @@
         <v>9.94</v>
       </c>
       <c r="D35" s="4"/>
-      <c r="E35">
-        <f t="shared" si="0"/>
-        <v>0.94466800804828988</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>2</v>
       </c>
@@ -1013,148 +870,112 @@
       <c r="D36" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E36">
-        <f t="shared" si="0"/>
-        <v>1.5024000000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>2</v>
       </c>
       <c r="B37" s="4">
-        <f t="shared" ref="B37:B44" si="2">B36+1</f>
+        <f t="shared" ref="B37:B44" si="1">B36+1</f>
         <v>14</v>
       </c>
       <c r="C37" s="5">
         <v>6.72</v>
       </c>
       <c r="D37" s="4"/>
-      <c r="E37">
-        <f t="shared" si="0"/>
-        <v>1.3973214285714286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>2</v>
       </c>
       <c r="B38" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="C38" s="5">
         <v>7.38</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38">
-        <f t="shared" si="0"/>
-        <v>1.2723577235772359</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>2</v>
       </c>
       <c r="B39" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="C39" s="5">
         <v>8.56</v>
       </c>
       <c r="D39" s="4"/>
-      <c r="E39">
-        <f t="shared" si="0"/>
-        <v>1.09696261682243</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>2</v>
       </c>
       <c r="B40" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="C40" s="5">
         <v>7.59</v>
       </c>
       <c r="D40" s="4"/>
-      <c r="E40">
-        <f t="shared" si="0"/>
-        <v>1.2371541501976286</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>2</v>
       </c>
       <c r="B41" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="C41" s="5">
         <v>7.75</v>
       </c>
       <c r="D41" s="4"/>
-      <c r="E41">
-        <f t="shared" si="0"/>
-        <v>1.2116129032258065</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>2</v>
       </c>
       <c r="B42" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
       <c r="C42" s="5">
         <v>8.0299999999999994</v>
       </c>
       <c r="D42" s="4"/>
-      <c r="E42">
-        <f t="shared" si="0"/>
-        <v>1.169364881693649</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>2</v>
       </c>
       <c r="B43" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
       <c r="C43" s="5">
         <v>11.71</v>
       </c>
       <c r="D43" s="4"/>
-      <c r="E43">
-        <f t="shared" si="0"/>
-        <v>0.80187873612297178</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>2</v>
       </c>
       <c r="B44" s="4">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="C44" s="5">
         <v>8.75</v>
       </c>
       <c r="D44" s="4"/>
-      <c r="E44">
-        <f t="shared" si="0"/>
-        <v>1.0731428571428572</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>2</v>
       </c>
@@ -1168,12 +989,8 @@
       <c r="D45" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E45">
-        <f t="shared" si="0"/>
-        <v>0.92421259842519687</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>3</v>
       </c>
@@ -1184,12 +1001,8 @@
         <v>7.03</v>
       </c>
       <c r="D46" s="4"/>
-      <c r="E46">
-        <f t="shared" si="0"/>
-        <v>1.3357041251778095</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>3</v>
       </c>
@@ -1200,12 +1013,8 @@
         <v>7.44</v>
       </c>
       <c r="D47" s="4"/>
-      <c r="E47">
-        <f t="shared" si="0"/>
-        <v>1.2620967741935485</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>3</v>
       </c>
@@ -1216,12 +1025,8 @@
         <v>6.78</v>
       </c>
       <c r="D48" s="4"/>
-      <c r="E48">
-        <f t="shared" si="0"/>
-        <v>1.3849557522123894</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>3</v>
       </c>
@@ -1232,12 +1037,8 @@
         <v>9.3699999999999992</v>
       </c>
       <c r="D49" s="4"/>
-      <c r="E49">
-        <f t="shared" si="0"/>
-        <v>1.0021344717182499</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>3</v>
       </c>
@@ -1248,12 +1049,8 @@
         <v>7.09</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50">
-        <f t="shared" si="0"/>
-        <v>1.3244005641748944</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>3</v>
       </c>
@@ -1264,12 +1061,8 @@
         <v>7.31</v>
       </c>
       <c r="D51" s="4"/>
-      <c r="E51">
-        <f t="shared" si="0"/>
-        <v>1.2845417236662109</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>3</v>
       </c>
@@ -1280,12 +1073,8 @@
         <v>7.93</v>
       </c>
       <c r="D52" s="4"/>
-      <c r="E52">
-        <f t="shared" si="0"/>
-        <v>1.184110970996217</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>3</v>
       </c>
@@ -1296,12 +1085,8 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="D53" s="4"/>
-      <c r="E53">
-        <f t="shared" si="0"/>
-        <v>1.0375690607734807</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>3</v>
       </c>
@@ -1312,12 +1097,8 @@
         <v>9.52</v>
       </c>
       <c r="D54" s="4"/>
-      <c r="E54">
-        <f t="shared" si="0"/>
-        <v>0.9863445378151261</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>3</v>
       </c>
@@ -1328,12 +1109,8 @@
         <v>11.9</v>
       </c>
       <c r="D55" s="4"/>
-      <c r="E55">
-        <f t="shared" si="0"/>
-        <v>0.78907563025210081</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>3</v>
       </c>
@@ -1344,12 +1121,8 @@
         <v>8.2200000000000006</v>
       </c>
       <c r="D56" s="4"/>
-      <c r="E56">
-        <f t="shared" si="0"/>
-        <v>1.1423357664233575</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>3</v>
       </c>
@@ -1360,12 +1133,8 @@
         <v>9.3800000000000008</v>
       </c>
       <c r="D57" s="4"/>
-      <c r="E57">
-        <f t="shared" si="0"/>
-        <v>1.0010660980810235</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>3</v>
       </c>
@@ -1377,85 +1146,65 @@
         <v>7.75</v>
       </c>
       <c r="D58" s="4"/>
-      <c r="E58">
-        <f t="shared" si="0"/>
-        <v>1.2116129032258065</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>3</v>
       </c>
       <c r="B59" s="4">
-        <f t="shared" ref="B59:B66" si="3">B58+1</f>
+        <f t="shared" ref="B59:B66" si="2">B58+1</f>
         <v>14</v>
       </c>
       <c r="C59" s="5">
         <v>6.78</v>
       </c>
       <c r="D59" s="4"/>
-      <c r="E59">
-        <f t="shared" si="0"/>
-        <v>1.3849557522123894</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>3</v>
       </c>
       <c r="B60" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="C60" s="5">
         <v>7.16</v>
       </c>
       <c r="D60" s="4"/>
-      <c r="E60">
-        <f t="shared" si="0"/>
-        <v>1.3114525139664805</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>3</v>
       </c>
       <c r="B61" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>16</v>
       </c>
       <c r="C61" s="5">
         <v>8.8699999999999992</v>
       </c>
       <c r="D61" s="4"/>
-      <c r="E61">
-        <f t="shared" si="0"/>
-        <v>1.0586245772266067</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>3</v>
       </c>
       <c r="B62" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="C62" s="5">
         <v>7.82</v>
       </c>
       <c r="D62" s="4"/>
-      <c r="E62">
-        <f t="shared" si="0"/>
-        <v>1.20076726342711</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>3</v>
       </c>
       <c r="B63" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
       <c r="C63" s="5">
@@ -1464,34 +1213,26 @@
       <c r="D63" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E63">
-        <f t="shared" si="0"/>
-        <v>1.1258992805755397</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>3</v>
       </c>
       <c r="B64" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>19</v>
       </c>
       <c r="C64" s="5">
         <v>8.19</v>
       </c>
       <c r="D64" s="4"/>
-      <c r="E64">
-        <f t="shared" si="0"/>
-        <v>1.1465201465201467</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>3</v>
       </c>
       <c r="B65" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="C65" s="5">
@@ -1500,29 +1241,21 @@
       <c r="D65" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E65">
-        <f t="shared" si="0"/>
-        <v>0.83466666666666667</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>3</v>
       </c>
       <c r="B66" s="4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>21</v>
       </c>
       <c r="C66" s="5">
         <v>7.41</v>
       </c>
       <c r="D66" s="4"/>
-      <c r="E66">
-        <f t="shared" si="0"/>
-        <v>1.2672064777327936</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>3</v>
       </c>
@@ -1534,10 +1267,6 @@
         <v>10.41</v>
       </c>
       <c r="D67" s="4"/>
-      <c r="E67">
-        <f t="shared" ref="E67" si="4">9.39/C67</f>
-        <v>0.90201729106628248</v>
-      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:D67">
